--- a/EC03/FINZEN GESTIÓN Y MANEJO DE FINANZAS PERSONALES MEDIANTE VISUALIZACIÓN DE DATOS EN JÓVENES/out/analisis_finzen.xlsx
+++ b/EC03/FINZEN GESTIÓN Y MANEJO DE FINANZAS PERSONALES MEDIANTE VISUALIZACIÓN DE DATOS EN JÓVENES/out/analisis_finzen.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/980cee20288acd15/Escritorio/SIC/PROYECTO/Proyecto/sic-ecuador-2025-proyectos/EC03/FINZEN GESTIÓN Y MANEJO DE FINANZAS PERSONALES MEDIANTE VISUALIZACIÓN DE DATOS EN JÓVENES/out/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_01FB1730F99328449B2D479419AEB2C0F5936041" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9C92EA-FF10-4287-94E9-D00EC401D21B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finanzas" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="equilibrio" sheetId="3" r:id="rId3"/>
     <sheet name="tipo_ingreso" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -640,8 +646,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,13 +710,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -748,7 +762,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -782,6 +796,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -816,9 +831,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -991,14 +1007,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="35.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1112,7 +1136,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1226,7 +1250,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1402,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1440,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1454,7 +1478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1554,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1606,7 +1630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1668,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1682,7 +1706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +1744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1796,7 +1820,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1872,7 +1896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1910,7 +1934,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1954,14 +1978,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +2011,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2013,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2039,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -2065,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -2117,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2169,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2195,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -2221,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2247,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2273,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2299,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -2325,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2377,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -2403,7 +2427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -2429,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -2455,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -2481,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -2507,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2533,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -2559,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -2611,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2663,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -2689,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2715,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -2767,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -2793,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2819,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -2845,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -2871,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2897,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2923,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2949,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2975,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
@@ -3007,14 +3031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3058,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3054,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3074,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3094,7 +3118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3114,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3134,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3174,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3194,7 +3218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3234,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3254,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3274,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3294,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3314,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3334,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3354,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3414,7 +3438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3474,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3494,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3520,14 +3544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +3571,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3587,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -3607,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3627,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -3647,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3667,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3687,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3707,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>162</v>
       </c>
@@ -3727,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3747,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3767,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3787,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -3807,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3827,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3847,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>164</v>
       </c>
@@ -3867,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -3887,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>166</v>
       </c>
@@ -3907,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -3927,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -3947,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3967,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>169</v>
       </c>
@@ -3987,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>170</v>
       </c>
@@ -4027,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4047,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4067,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -4087,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4107,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4127,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>172</v>
       </c>
@@ -4147,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -4167,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -4187,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -4207,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>173</v>
       </c>
@@ -4227,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -4247,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -4267,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -4307,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>174</v>
       </c>
